--- a/examples/trainData/sample_dataset_dict.xlsx
+++ b/examples/trainData/sample_dataset_dict.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ROWID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -502,82 +502,78 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>PID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Name of participant.
 To test the Character Conversion operation</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gender of participant.
 To test the Text Standardization operation</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>male, female</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Demographics</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Age in years derived from Date of Birth</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>numeric</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Demographics</t>
@@ -586,26 +582,18 @@
       <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Generate with Formula</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AgeMonths</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Age in months derived from Date of Birth</t>
+          <t>Age in years derived from Date of Birth</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,12 +624,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>AgeMonths</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Height of participant in metres</t>
+          <t>Age in months derived from Date of Birth</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,24 +640,32 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Physical Measurements</t>
+          <t>Demographics</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Generate with Formula</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Weight of participant in kilograms</t>
+          <t>Height of participant in metres</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +673,11 @@
           <t>numeric</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0,200]</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Physical Measurements</t>
@@ -692,12 +692,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BMI</t>
+          <t>Weight</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Body mass index (weight/height2 in kg/m2). Reported for participants aged 2 years or older.</t>
+          <t>Weight of participant in kilograms</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -705,7 +705,11 @@
           <t>numeric</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0,150]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Physical Measurements</t>
@@ -714,38 +718,26 @@
       <c r="F9" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Generate with formula</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BMICatUnder20yrs</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Body mass index category. Reported for participants aged 2 to 19 years. One of UnderWeight (BMI &lt; 5th percentile) NormWeight (BMI 5th to &lt; 85th percentile), OverWeight (BMI 85th to &lt; 95th percentile), Obese (BMI &gt;= 95th percentile).</t>
+          <t>Body mass index (weight/height2 in kg/m2). Reported for participants aged 2 years or older.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>UnderWeight; NormWeight; OverWeight; Obese</t>
-        </is>
-      </c>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Physical Measurements</t>
@@ -761,19 +753,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Generate with percentile chart</t>
+          <t>Generate with formula</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BMI_WHO</t>
+          <t>BMICatUnder20yrs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Body mass index category. Reported for participants aged 2 years or older. One of 12.0_18.5, 18.5_to_24.9, 25.0_to_29.9, or 30.0_plus.</t>
+          <t>Body mass index category. Reported for participants aged 2 to 19 years. One of UnderWeight (BMI &lt; 5th percentile) NormWeight (BMI 5th to &lt; 85th percentile), OverWeight (BMI 85th to &lt; 95th percentile), Obese (BMI &gt;= 95th percentile).</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -783,7 +775,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.0_18.4; 18.5_24.9; 25.0_29.9; 30.0_plus</t>
+          <t>UnderWeight; NormWeight; OverWeight; Obese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -800,6 +792,46 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>Generate with percentile chart</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BMI_WHO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Body mass index category. Reported for participants aged 2 years or older. One of 12.0_18.5, 18.5_to_24.9, 25.0_to_29.9, or 30.0_plus.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.0_18.5; 18.5_to_24.9; 25.0_to_29.9; 30.0_plus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Physical Measurements</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>a) If 'bmi' &lt;=18.4, =&gt; 'BMI_WHO' = '12.0_18.5'
 b) If 'bmi' &lt;=24.9, =&gt; 'BMI_WHO' = '18.5_24.9'
@@ -808,137 +840,166 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Date of Birth</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Date of birth of participant.
 To test the output of the Date Standardization operation for this variable when the CUSTOM format in MS excel is used and no coding is written in this dictionary</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ddd, dd mmmm yy</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Demographics</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Date of First Visit</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Date of first visit of participant.
 To test the output of the Date Standardization operation for this variable when the DATE format in MS excel is used and the wrong codings is written in this dictionary</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ddd, dd mmmm yy</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Medical Information</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Date of Diagnosis</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Date of diagnosis of participant.
 To test the output of the Date Standardization operation for this variable when the TEXT format in MS excel is used and no coding is written in this dictionary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>ddd, dd mmmm yy</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Medical Information</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Date of Treatment</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Date of treatment of participant.
 To test the output of the Date Standardization operation for this variable when the TEXT format in MS excel is used and the wrong codings is written in this dictionary</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>ddd, dd mmmm yy</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Medical Information</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Care Cost</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Total care cost of participant.
+To test the exclusion list of the Character Conversion operation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Financial Information</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
